--- a/data/info/match_info_jogo9.xlsx
+++ b/data/info/match_info_jogo9.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28217"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\coletas_3x3\rastreamento_3x3_Dvideow\jogo9\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruno\OneDrive\Documents\data\bruno\projetos\3x3\tracking3x3\data\info\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F82CC33-C9E8-4263-86C5-E8105A9FA553}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="7965"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="45">
   <si>
     <t>jogo_num</t>
   </si>
@@ -130,12 +129,42 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>atleta_id</t>
+  </si>
+  <si>
+    <t>atleta_info</t>
+  </si>
+  <si>
+    <t>t1_tenis_nike</t>
+  </si>
+  <si>
+    <t>t1_tenis_preto</t>
+  </si>
+  <si>
+    <t>t1_tenis_colorido</t>
+  </si>
+  <si>
+    <t>t1_preto</t>
+  </si>
+  <si>
+    <t>t2_tenis_branco_magro</t>
+  </si>
+  <si>
+    <t>t2_tenis_rosa</t>
+  </si>
+  <si>
+    <t>t2_tenis_preto_cabeludo</t>
+  </si>
+  <si>
+    <t>t2_tenis_branco_tranca</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -455,11 +484,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q33"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:R33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L29" sqref="L29"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -469,18 +498,19 @@
     <col min="3" max="3" width="11.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="7.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="19.28515625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="19.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,34 +530,40 @@
         <v>6</v>
       </c>
       <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
         <v>4</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>5</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>27</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>28</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>29</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>30</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>31</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>32</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>9</v>
       </c>
@@ -546,721 +582,769 @@
       <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>37</v>
+      </c>
+      <c r="I2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>15</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>4420</v>
-      </c>
-      <c r="K2">
-        <v>4754</v>
       </c>
       <c r="L2">
         <v>4754</v>
       </c>
       <c r="M2">
+        <v>4754</v>
+      </c>
+      <c r="N2">
         <v>5115</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>13</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>4420</v>
       </c>
-      <c r="P2">
+      <c r="Q2">
         <v>6927</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G3" t="s">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G3" s="1">
+        <v>2</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3" t="s">
         <v>12</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>16</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>5115</v>
-      </c>
-      <c r="K3">
-        <v>5625</v>
       </c>
       <c r="L3">
         <v>5625</v>
       </c>
       <c r="M3">
+        <v>5625</v>
+      </c>
+      <c r="N3">
         <v>5995</v>
       </c>
-      <c r="N3" t="s">
+      <c r="O3" t="s">
         <v>15</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>4420</v>
       </c>
-      <c r="P3">
+      <c r="Q3">
         <v>7033</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>3</v>
+      </c>
+      <c r="H4" t="s">
+        <v>39</v>
+      </c>
+      <c r="I4" t="s">
         <v>13</v>
       </c>
-      <c r="H4" t="s">
+      <c r="J4" t="s">
         <v>17</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>5995</v>
-      </c>
-      <c r="K4">
-        <v>6163</v>
       </c>
       <c r="L4">
         <v>6163</v>
       </c>
       <c r="M4">
+        <v>6163</v>
+      </c>
+      <c r="N4">
         <v>6399</v>
       </c>
-      <c r="N4" t="s">
+      <c r="O4" t="s">
         <v>14</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>6927</v>
       </c>
-      <c r="P4">
+      <c r="Q4">
         <v>8897</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="G5" t="s">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" t="s">
         <v>14</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>18</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>6399</v>
-      </c>
-      <c r="K5">
-        <v>6594</v>
       </c>
       <c r="L5">
         <v>6594</v>
       </c>
       <c r="M5">
+        <v>6594</v>
+      </c>
+      <c r="N5">
         <v>7891</v>
       </c>
-      <c r="N5" t="s">
+      <c r="O5" t="s">
         <v>16</v>
       </c>
-      <c r="O5">
+      <c r="P5">
         <v>7033</v>
       </c>
-      <c r="P5">
+      <c r="Q5">
         <v>8942</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
-      <c r="J6">
+      <c r="G6">
+        <v>5</v>
+      </c>
+      <c r="H6" t="s">
+        <v>41</v>
+      </c>
+      <c r="K6">
         <v>7891</v>
-      </c>
-      <c r="K6">
-        <v>8110</v>
       </c>
       <c r="L6">
         <v>8110</v>
       </c>
       <c r="M6">
+        <v>8110</v>
+      </c>
+      <c r="N6">
         <v>8486</v>
       </c>
-      <c r="N6" t="s">
+      <c r="O6" t="s">
         <v>11</v>
       </c>
-      <c r="O6">
+      <c r="P6">
         <v>8897</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <v>11551</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="J7">
+      <c r="G7" s="1">
+        <v>6</v>
+      </c>
+      <c r="H7" t="s">
+        <v>42</v>
+      </c>
+      <c r="I7" s="1"/>
+      <c r="K7">
         <v>8486</v>
-      </c>
-      <c r="K7">
-        <v>9035</v>
       </c>
       <c r="L7">
         <v>9035</v>
       </c>
       <c r="M7">
+        <v>9035</v>
+      </c>
+      <c r="N7">
         <v>9406</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>17</v>
       </c>
-      <c r="O7">
+      <c r="P7">
         <v>8942</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <v>11569</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="J8">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>7</v>
+      </c>
+      <c r="H8" t="s">
+        <v>43</v>
+      </c>
+      <c r="K8">
         <v>9406</v>
-      </c>
-      <c r="K8">
-        <v>9563</v>
       </c>
       <c r="L8">
         <v>9563</v>
       </c>
       <c r="M8">
+        <v>9563</v>
+      </c>
+      <c r="N8">
         <v>10280</v>
       </c>
-      <c r="N8" t="s">
+      <c r="O8" t="s">
         <v>12</v>
       </c>
-      <c r="O8">
+      <c r="P8">
         <v>11551</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <v>13295</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>19</v>
       </c>
-      <c r="J9">
+      <c r="G9">
+        <v>8</v>
+      </c>
+      <c r="H9" t="s">
+        <v>44</v>
+      </c>
+      <c r="K9">
         <v>10280</v>
-      </c>
-      <c r="K9">
-        <v>10872</v>
       </c>
       <c r="L9">
         <v>10872</v>
       </c>
       <c r="M9">
+        <v>10872</v>
+      </c>
+      <c r="N9">
         <v>11127</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>15</v>
       </c>
-      <c r="O9">
+      <c r="P9">
         <v>11569</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <v>13373</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>20</v>
       </c>
       <c r="E10" s="1"/>
-      <c r="J10">
+      <c r="K10">
         <v>11127</v>
-      </c>
-      <c r="K10">
-        <v>11254</v>
       </c>
       <c r="L10">
         <v>11254</v>
       </c>
       <c r="M10">
+        <v>11254</v>
+      </c>
+      <c r="N10">
         <v>12059</v>
       </c>
-      <c r="N10" t="s">
+      <c r="O10" t="s">
         <v>13</v>
       </c>
-      <c r="O10">
+      <c r="P10">
         <v>13295</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <v>15964</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>22</v>
       </c>
-      <c r="J11">
+      <c r="K11">
         <v>12059</v>
-      </c>
-      <c r="K11">
-        <v>12296</v>
       </c>
       <c r="L11">
         <v>12296</v>
       </c>
       <c r="M11">
+        <v>12296</v>
+      </c>
+      <c r="N11">
         <v>12541</v>
       </c>
-      <c r="N11" t="s">
+      <c r="O11" t="s">
         <v>16</v>
       </c>
-      <c r="O11">
+      <c r="P11">
         <v>13373</v>
       </c>
-      <c r="P11">
+      <c r="Q11">
         <v>15210</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="J12">
+      <c r="K12">
         <v>12541</v>
-      </c>
-      <c r="K12">
-        <v>12858</v>
       </c>
       <c r="L12">
         <v>12858</v>
       </c>
       <c r="M12">
+        <v>12858</v>
+      </c>
+      <c r="N12">
         <v>15555</v>
       </c>
-      <c r="N12" t="s">
+      <c r="O12" t="s">
         <v>17</v>
       </c>
-      <c r="O12">
+      <c r="P12">
         <v>15210</v>
       </c>
-      <c r="P12">
+      <c r="Q12">
         <v>16054</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>23</v>
       </c>
-      <c r="J13">
+      <c r="K13">
         <v>15555</v>
-      </c>
-      <c r="K13">
-        <v>15813</v>
       </c>
       <c r="L13">
         <v>15813</v>
       </c>
       <c r="M13">
+        <v>15813</v>
+      </c>
+      <c r="N13">
         <v>16456</v>
       </c>
-      <c r="N13" t="s">
+      <c r="O13" t="s">
         <v>14</v>
       </c>
-      <c r="O13">
+      <c r="P13">
         <v>15964</v>
       </c>
-      <c r="P13">
+      <c r="Q13">
         <v>16823</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="J14">
+      <c r="K14">
         <v>16456</v>
       </c>
-      <c r="K14">
+      <c r="L14">
         <v>16668</v>
       </c>
-      <c r="L14">
+      <c r="M14">
         <v>17196</v>
       </c>
-      <c r="M14">
+      <c r="N14">
         <v>17455</v>
       </c>
-      <c r="N14" t="s">
+      <c r="O14" t="s">
         <v>15</v>
       </c>
-      <c r="O14">
+      <c r="P14">
         <v>16054</v>
       </c>
-      <c r="P14">
+      <c r="Q14">
         <v>18108</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>25</v>
       </c>
-      <c r="J15">
+      <c r="K15">
         <v>17455</v>
       </c>
-      <c r="K15">
+      <c r="L15">
         <v>17882</v>
       </c>
-      <c r="L15">
+      <c r="M15">
         <v>18285</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>18719</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>11</v>
       </c>
-      <c r="O15">
+      <c r="P15">
         <v>16823</v>
       </c>
-      <c r="P15">
+      <c r="Q15">
         <v>19496</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>26</v>
       </c>
-      <c r="J16">
+      <c r="K16">
         <v>18719</v>
-      </c>
-      <c r="K16">
-        <v>18951</v>
       </c>
       <c r="L16">
         <v>18951</v>
       </c>
       <c r="M16">
+        <v>18951</v>
+      </c>
+      <c r="N16">
         <v>19707</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>18</v>
       </c>
-      <c r="O16">
+      <c r="P16">
         <v>18108</v>
       </c>
-      <c r="P16">
+      <c r="Q16">
         <v>19477</v>
       </c>
     </row>
-    <row r="17" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J17">
+    <row r="17" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K17">
         <v>19707</v>
-      </c>
-      <c r="K17">
-        <v>19876</v>
       </c>
       <c r="L17">
         <v>19876</v>
       </c>
       <c r="M17">
+        <v>19876</v>
+      </c>
+      <c r="N17">
         <v>20210</v>
       </c>
-      <c r="N17" t="s">
+      <c r="O17" t="s">
         <v>17</v>
       </c>
-      <c r="O17">
+      <c r="P17">
         <v>19477</v>
       </c>
-      <c r="P17">
+      <c r="Q17">
         <v>22238</v>
       </c>
     </row>
-    <row r="18" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J18">
+    <row r="18" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K18">
         <v>20210</v>
-      </c>
-      <c r="K18">
-        <v>20811</v>
       </c>
       <c r="L18">
         <v>20811</v>
       </c>
       <c r="M18">
+        <v>20811</v>
+      </c>
+      <c r="N18">
         <v>21206</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>14</v>
       </c>
-      <c r="O18">
+      <c r="P18">
         <v>19496</v>
       </c>
-      <c r="P18">
+      <c r="Q18">
         <v>20656</v>
       </c>
     </row>
-    <row r="19" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J19">
+    <row r="19" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K19">
         <v>21206</v>
-      </c>
-      <c r="K19">
-        <v>21703</v>
       </c>
       <c r="L19">
         <v>21703</v>
       </c>
       <c r="M19">
+        <v>21703</v>
+      </c>
+      <c r="N19">
         <v>23907</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>12</v>
       </c>
-      <c r="O19">
+      <c r="P19">
         <v>20656</v>
       </c>
-      <c r="P19">
+      <c r="Q19">
         <v>21988</v>
       </c>
     </row>
-    <row r="20" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J20">
+    <row r="20" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K20">
         <v>23907</v>
-      </c>
-      <c r="K20">
-        <v>24211</v>
       </c>
       <c r="L20">
         <v>24211</v>
       </c>
       <c r="M20">
+        <v>24211</v>
+      </c>
+      <c r="N20">
         <v>24518</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>11</v>
       </c>
-      <c r="O20">
+      <c r="P20">
         <v>21988</v>
       </c>
-      <c r="P20">
+      <c r="Q20">
         <v>22936</v>
       </c>
-      <c r="Q20" t="s">
+      <c r="R20" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="21" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J21">
+    <row r="21" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K21">
         <v>24518</v>
-      </c>
-      <c r="K21">
-        <v>25660</v>
       </c>
       <c r="L21">
         <v>25660</v>
       </c>
       <c r="M21">
+        <v>25660</v>
+      </c>
+      <c r="N21">
         <v>25915</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>16</v>
       </c>
-      <c r="O21">
+      <c r="P21">
         <v>22238</v>
       </c>
-      <c r="P21">
+      <c r="Q21">
         <v>23066</v>
       </c>
     </row>
-    <row r="22" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J22">
+    <row r="22" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K22">
         <v>25915</v>
-      </c>
-      <c r="K22">
-        <v>26113</v>
       </c>
       <c r="L22">
         <v>26113</v>
       </c>
       <c r="M22">
+        <v>26113</v>
+      </c>
+      <c r="N22">
         <v>26346</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>13</v>
       </c>
-      <c r="O22">
+      <c r="P22">
         <v>22936</v>
       </c>
-      <c r="P22">
+      <c r="Q22">
         <v>26964</v>
       </c>
     </row>
-    <row r="23" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J23">
+    <row r="23" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K23">
         <v>26346</v>
-      </c>
-      <c r="K23">
-        <v>27362</v>
       </c>
       <c r="L23">
         <v>27362</v>
       </c>
       <c r="M23">
+        <v>27362</v>
+      </c>
+      <c r="N23">
         <v>28080</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>15</v>
       </c>
-      <c r="O23">
+      <c r="P23">
         <v>23066</v>
       </c>
-      <c r="P23">
+      <c r="Q23">
         <v>27001</v>
       </c>
     </row>
-    <row r="24" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J24">
+    <row r="24" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K24">
         <v>28080</v>
-      </c>
-      <c r="K24">
-        <v>28861</v>
       </c>
       <c r="L24">
         <v>28861</v>
       </c>
       <c r="M24">
+        <v>28861</v>
+      </c>
+      <c r="N24">
         <v>30045</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>11</v>
       </c>
-      <c r="O24">
+      <c r="P24">
         <v>26964</v>
       </c>
-      <c r="P24">
+      <c r="Q24">
         <v>28558</v>
       </c>
     </row>
-    <row r="25" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J25">
+    <row r="25" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K25">
         <v>30045</v>
-      </c>
-      <c r="K25">
-        <v>31266</v>
       </c>
       <c r="L25">
         <v>31266</v>
       </c>
       <c r="M25">
+        <v>31266</v>
+      </c>
+      <c r="N25">
         <v>32330</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>16</v>
       </c>
-      <c r="O25">
+      <c r="P25">
         <v>27001</v>
       </c>
-      <c r="P25">
+      <c r="Q25">
         <v>28573</v>
       </c>
     </row>
-    <row r="26" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J26">
+    <row r="26" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K26">
         <v>32330</v>
-      </c>
-      <c r="K26">
-        <v>33733</v>
       </c>
       <c r="L26">
         <v>33733</v>
       </c>
       <c r="M26">
+        <v>33733</v>
+      </c>
+      <c r="N26">
         <v>34125</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>12</v>
       </c>
-      <c r="O26">
+      <c r="P26">
         <v>28558</v>
       </c>
-      <c r="P26">
+      <c r="Q26">
         <v>29451</v>
       </c>
     </row>
-    <row r="27" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J27">
+    <row r="27" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K27">
         <v>34125</v>
-      </c>
-      <c r="K27">
-        <v>35014</v>
       </c>
       <c r="L27">
         <v>35014</v>
       </c>
       <c r="M27">
+        <v>35014</v>
+      </c>
+      <c r="N27">
         <v>36567</v>
       </c>
-      <c r="N27" t="s">
+      <c r="O27" t="s">
         <v>17</v>
       </c>
-      <c r="O27">
+      <c r="P27">
         <v>28573</v>
       </c>
-      <c r="P27">
+      <c r="Q27">
         <v>29501</v>
       </c>
     </row>
-    <row r="28" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="J28">
+    <row r="28" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="K28">
         <v>36567</v>
       </c>
-      <c r="K28">
+      <c r="L28">
         <v>37022</v>
       </c>
-      <c r="N28" t="s">
+      <c r="O28" t="s">
         <v>13</v>
       </c>
-      <c r="O28">
+      <c r="P28">
         <v>29451</v>
       </c>
-      <c r="P28">
+      <c r="Q28">
         <v>30755</v>
       </c>
     </row>
-    <row r="29" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="N29" t="s">
+    <row r="29" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O29" t="s">
         <v>16</v>
       </c>
-      <c r="O29">
+      <c r="P29">
         <v>29501</v>
       </c>
-      <c r="P29">
+      <c r="Q29">
         <v>30755</v>
       </c>
     </row>
-    <row r="30" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="N30" t="s">
+    <row r="30" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O30" t="s">
         <v>14</v>
       </c>
-      <c r="O30">
+      <c r="P30">
         <v>30755</v>
       </c>
-      <c r="P30">
+      <c r="Q30">
         <v>31889</v>
       </c>
     </row>
-    <row r="31" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="N31" t="s">
+    <row r="31" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O31" t="s">
         <v>18</v>
       </c>
-      <c r="O31">
+      <c r="P31">
         <v>30755</v>
       </c>
-      <c r="P31">
+      <c r="Q31">
         <v>31809</v>
       </c>
     </row>
-    <row r="32" spans="10:17" x14ac:dyDescent="0.25">
-      <c r="N32" t="s">
+    <row r="32" spans="11:18" x14ac:dyDescent="0.25">
+      <c r="O32" t="s">
         <v>15</v>
       </c>
-      <c r="O32">
+      <c r="P32">
         <v>31809</v>
       </c>
     </row>
-    <row r="33" spans="14:15" x14ac:dyDescent="0.25">
-      <c r="N33" t="s">
+    <row r="33" spans="15:16" x14ac:dyDescent="0.25">
+      <c r="O33" t="s">
         <v>13</v>
       </c>
-      <c r="O33">
+      <c r="P33">
         <v>31889</v>
       </c>
     </row>
